--- a/statistics/performance_table(av).xlsx
+++ b/statistics/performance_table(av).xlsx
@@ -8,7 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -120,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>эксперимент</t>
   </si>
@@ -220,6 +225,9 @@
   <si>
     <t>exp(3,3)</t>
   </si>
+  <si>
+    <t>for chart 4:</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -327,6 +335,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,6 +353,8161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>График 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.48099109704310228"/>
+          <c:y val="0.90814291457250884"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14203608269896495"/>
+          <c:y val="0.14632165607911993"/>
+          <c:w val="0.82101481500858908"/>
+          <c:h val="0.83605292754236937"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>w=1,7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.8300000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9390000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26079999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>w=2,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$5:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.05E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0870000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24759999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>w=2,5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$8:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$8:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.2750000000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1269999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23089999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404815576"/>
+        <c:axId val="404815968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404815576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.53995762157637273"/>
+              <c:y val="1.4552623194092841E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404815968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404815968"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>mse</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>q</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.48977104267015897"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404815576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000006E-4"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81554799836067005"/>
+          <c:y val="0.46369765594974988"/>
+          <c:w val="0.13154413501939896"/>
+          <c:h val="0.19733396990674956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14203608269896495"/>
+          <c:y val="0.14632165607911993"/>
+          <c:w val="0.82101481500858908"/>
+          <c:h val="0.83605292754236937"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>w=1,7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.5560000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>w=2,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$5:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.429E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>w=2,5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$8:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$8:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.9089999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5579999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21079999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="411316840"/>
+        <c:axId val="411318016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="411316840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.53995762157637273"/>
+              <c:y val="1.4552623194092841E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411318016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="411318016"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>MSE_u</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.48977104267015897"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411316840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000006E-4"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81554799836067005"/>
+          <c:y val="0.46369765594974988"/>
+          <c:w val="0.13154413501939896"/>
+          <c:h val="0.19733396990674956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14203608269896495"/>
+          <c:y val="0.14632165607911993"/>
+          <c:w val="0.82101481500858908"/>
+          <c:h val="0.83605292754236937"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>w=1,7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.8200000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22170000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>w=2,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$5:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.34E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>w=2,5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$8:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$8:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.0179999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6700000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="403386048"/>
+        <c:axId val="403384480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="403386048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.53995762157637273"/>
+              <c:y val="1.4552623194092841E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403384480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="403384480"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>MSE_v</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.48977104267015897"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403386048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000006E-4"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81554799836067005"/>
+          <c:y val="0.46369765594974988"/>
+          <c:w val="0.13154413501939896"/>
+          <c:h val="0.19733396990674956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14203608269896495"/>
+          <c:y val="0.14632165607911993"/>
+          <c:w val="0.82101481500858908"/>
+          <c:h val="0.83605292754236937"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>w=1,7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.4650000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9300000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0770000000000003E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>w=2,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.12E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4850000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8500000000000003E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>w=2,5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$8:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$8:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0700000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0599999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1970000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="411764984"/>
+        <c:axId val="411762632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="411764984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.53995762157637273"/>
+              <c:y val="1.4552623194092841E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411762632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="411762632"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>MSE_f_u</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.48977104267015897"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411764984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000006E-4"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81554799836067005"/>
+          <c:y val="0.46369765594974988"/>
+          <c:w val="0.13154413501939896"/>
+          <c:h val="0.19733396990674956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14203608269896495"/>
+          <c:y val="0.14632165607911993"/>
+          <c:w val="0.82101481500858908"/>
+          <c:h val="0.83605292754236937"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>w=1,7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.356E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1369999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4099999999999997E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>w=2,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$5:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.2400000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7200000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7600000000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>w=2,5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$8:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$8:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.917E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4180000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4379999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404391488"/>
+        <c:axId val="404386000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404391488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.53995762157637273"/>
+              <c:y val="1.4552623194092841E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404386000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404386000"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>MSE_f_v</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.48977104267015897"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404391488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000006E-4"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81554799836067005"/>
+          <c:y val="0.46369765594974988"/>
+          <c:w val="0.13154413501939896"/>
+          <c:h val="0.19733396990674956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14203608269896495"/>
+          <c:y val="3.7216146907864456E-2"/>
+          <c:w val="0.82101481500858908"/>
+          <c:h val="0.81359002859534624"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>w=1,7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.4500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34379999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>w=2,1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$5:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.4000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>w=2,5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$8:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$8:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.7999999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31840000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="355704256"/>
+        <c:axId val="355705040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="355704256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.53995762157637273"/>
+              <c:y val="0.903441624383439"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355705040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="355705040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>RAR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2148394241417499E-2"/>
+              <c:y val="0.39350147575434535"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="355704256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+        <c:minorUnit val="2.0000000000000004E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.82219251663309523"/>
+          <c:y val="0.45407069925816845"/>
+          <c:w val="0.13154413501939896"/>
+          <c:h val="0.19733396990674956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>График 4</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.49150793859962877"/>
+          <c:y val="0.93925925925925924"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11733621253163724"/>
+          <c:y val="0.14494978127734034"/>
+          <c:w val="0.85416514013356648"/>
+          <c:h val="0.81167057451151947"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>series 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5.2750000000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.05E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8300000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1269999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0870000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9390000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26079999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:axId val="349101864"/>
+        <c:axId val="410181736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="349101864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+                  </a:rPr>
+                  <a:t>m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.53056594724359518"/>
+              <c:y val="2.032405949256343E-2"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410181736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="410181736"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="1.0000000000000004E-6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>mse</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>q</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8390801934538592E-3"/>
+              <c:y val="0.49666655001458149"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349101864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="12">
+          <cell r="N12">
+            <v>2</v>
+          </cell>
+          <cell r="W12">
+            <v>2.4650000000000001E-6</v>
+          </cell>
+          <cell r="Y12">
+            <v>1.7260000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>2.5</v>
+          </cell>
+          <cell r="W13">
+            <v>2.9300000000000002E-4</v>
+          </cell>
+          <cell r="Y13">
+            <v>0.42</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>3</v>
+          </cell>
+          <cell r="W14">
+            <v>5.0770000000000003E-4</v>
+          </cell>
+          <cell r="Y14">
+            <v>2.9790000000000001</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="N15">
+            <v>2</v>
+          </cell>
+          <cell r="W15">
+            <v>2.12E-6</v>
+          </cell>
+          <cell r="Y15">
+            <v>7.6499999999999995E-4</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="N16">
+            <v>2.5</v>
+          </cell>
+          <cell r="W16">
+            <v>8.4850000000000002E-5</v>
+          </cell>
+          <cell r="Y16">
+            <v>0.35399999999999998</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="N17">
+            <v>3</v>
+          </cell>
+          <cell r="W17">
+            <v>4.8500000000000003E-4</v>
+          </cell>
+          <cell r="Y17">
+            <v>2.38</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="N18">
+            <v>2</v>
+          </cell>
+          <cell r="W18">
+            <v>2.0700000000000001E-6</v>
+          </cell>
+          <cell r="Y18">
+            <v>2.0259999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="N19">
+            <v>2.5</v>
+          </cell>
+          <cell r="W19">
+            <v>3.0599999999999998E-5</v>
+          </cell>
+          <cell r="Y19">
+            <v>9.4100000000000003E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="N20">
+            <v>3</v>
+          </cell>
+          <cell r="W20">
+            <v>4.1970000000000001E-4</v>
+          </cell>
+          <cell r="Y20">
+            <v>2.145</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>без коэффициентов</v>
+          </cell>
+          <cell r="AA2">
+            <v>1.37</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>2 коэффициента, SoftAdapt</v>
+          </cell>
+          <cell r="AA3">
+            <v>29.39</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>3 коэффициента, SoftAdapt</v>
+          </cell>
+          <cell r="AA4">
+            <v>104</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>3 случайных коэффициента</v>
+          </cell>
+          <cell r="AA5">
+            <v>91.5</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>3 коэффициента SoftAdapt с памятью</v>
+          </cell>
+          <cell r="AA6">
+            <v>1.47</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>3 коэффициента, ReLoBRaLo</v>
+          </cell>
+          <cell r="AA7">
+            <v>0.68400000000000005</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,10 +8797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,9 +8817,10 @@
     <col min="13" max="13" width="10.42578125" style="21" customWidth="1"/>
     <col min="14" max="20" width="9.140625" style="7"/>
     <col min="21" max="21" width="9.140625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -717,8 +8884,17 @@
       <c r="U1" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="W1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
@@ -783,8 +8959,16 @@
       <c r="U2" s="11">
         <v>1.4500000000000001E-2</v>
       </c>
+      <c r="X2" s="25">
+        <f>M8</f>
+        <v>1.5</v>
+      </c>
+      <c r="Y2" s="7">
+        <f>P8</f>
+        <v>5.2750000000000003E-6</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
@@ -831,8 +9015,16 @@
       <c r="U3" s="11">
         <v>0.16070000000000001</v>
       </c>
+      <c r="X3" s="25">
+        <f>M5</f>
+        <v>1.9</v>
+      </c>
+      <c r="Y3" s="7">
+        <f>P5</f>
+        <v>2.05E-5</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
@@ -879,8 +9071,16 @@
       <c r="U4" s="11">
         <v>0.34379999999999999</v>
       </c>
+      <c r="X4" s="25">
+        <f>M2</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y4" s="7">
+        <f>P2</f>
+        <v>4.8300000000000002E-5</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>27</v>
       </c>
@@ -927,8 +9127,16 @@
       <c r="U5" s="11">
         <v>9.4000000000000004E-3</v>
       </c>
+      <c r="X5" s="25">
+        <f>M9</f>
+        <v>3.75</v>
+      </c>
+      <c r="Y5" s="7">
+        <f>P9</f>
+        <v>7.1269999999999997E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>28</v>
       </c>
@@ -975,8 +9183,16 @@
       <c r="U6" s="11">
         <v>0.1605</v>
       </c>
+      <c r="X6" s="25">
+        <f>M6</f>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="Y6" s="7">
+        <f t="shared" ref="Y3:Y10" si="1">P6</f>
+        <v>3.0870000000000002E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
@@ -1023,8 +9239,16 @@
       <c r="U7" s="11">
         <v>0.3271</v>
       </c>
+      <c r="X7" s="25">
+        <f>M3</f>
+        <v>4.55</v>
+      </c>
+      <c r="Y7" s="7">
+        <f>P3</f>
+        <v>3.9390000000000001E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>30</v>
       </c>
@@ -1071,8 +9295,16 @@
       <c r="U8" s="11">
         <v>4.7999999999999996E-3</v>
       </c>
+      <c r="X8" s="25">
+        <f>M10</f>
+        <v>6.5</v>
+      </c>
+      <c r="Y8" s="7">
+        <f>P10</f>
+        <v>0.23089999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>31</v>
       </c>
@@ -1119,8 +9351,16 @@
       <c r="U9" s="11">
         <v>8.5999999999999993E-2</v>
       </c>
+      <c r="X9" s="25">
+        <f>M7</f>
+        <v>6.9</v>
+      </c>
+      <c r="Y9" s="7">
+        <f>P7</f>
+        <v>0.24759999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>32</v>
       </c>
@@ -1167,10 +9407,33 @@
       <c r="U10" s="11">
         <v>0.31840000000000002</v>
       </c>
+      <c r="X10" s="25">
+        <f>M4</f>
+        <v>7.3</v>
+      </c>
+      <c r="Y10" s="7">
+        <f>P4</f>
+        <v>0.26079999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V40" sqref="V40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/statistics/performance_table(av).xlsx
+++ b/statistics/performance_table(av).xlsx
@@ -10,10 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -125,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>эксперимент</t>
   </si>
@@ -228,13 +224,20 @@
   <si>
     <t>for chart 4:</t>
   </si>
+  <si>
+    <t>First_law(t_0)</t>
+  </si>
+  <si>
+    <t>Second_law(t_0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -310,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -338,6 +341,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,11 +633,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404815576"/>
-        <c:axId val="404815968"/>
+        <c:axId val="307528168"/>
+        <c:axId val="307528552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404815576"/>
+        <c:axId val="307528168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -747,13 +751,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404815968"/>
+        <c:crossAx val="307528552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404815968"/>
+        <c:axId val="307528552"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -876,7 +880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404815576"/>
+        <c:crossAx val="307528168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -1170,11 +1174,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411316840"/>
-        <c:axId val="411318016"/>
+        <c:axId val="307915880"/>
+        <c:axId val="307916264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="411316840"/>
+        <c:axId val="307915880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -1288,13 +1292,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411318016"/>
+        <c:crossAx val="307916264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411318016"/>
+        <c:axId val="307916264"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1410,7 +1414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411316840"/>
+        <c:crossAx val="307915880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -1704,11 +1708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="403386048"/>
-        <c:axId val="403384480"/>
+        <c:axId val="307025128"/>
+        <c:axId val="307034496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="403386048"/>
+        <c:axId val="307025128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -1822,13 +1826,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403384480"/>
+        <c:crossAx val="307034496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="403384480"/>
+        <c:axId val="307034496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1944,7 +1948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="403386048"/>
+        <c:crossAx val="307025128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -2238,11 +2242,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411764984"/>
-        <c:axId val="411762632"/>
+        <c:axId val="307142704"/>
+        <c:axId val="307143088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="411764984"/>
+        <c:axId val="307142704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -2356,13 +2360,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411762632"/>
+        <c:crossAx val="307143088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411762632"/>
+        <c:axId val="307143088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2478,7 +2482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411764984"/>
+        <c:crossAx val="307142704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -2772,11 +2776,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404391488"/>
-        <c:axId val="404386000"/>
+        <c:axId val="215041128"/>
+        <c:axId val="307177392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404391488"/>
+        <c:axId val="215041128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -2890,13 +2894,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404386000"/>
+        <c:crossAx val="307177392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404386000"/>
+        <c:axId val="307177392"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3012,7 +3016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404391488"/>
+        <c:crossAx val="215041128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0000000000000006E-4"/>
@@ -3306,11 +3310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="355704256"/>
-        <c:axId val="355705040"/>
+        <c:axId val="307175432"/>
+        <c:axId val="307177784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="355704256"/>
+        <c:axId val="307175432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -3424,13 +3428,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355705040"/>
+        <c:crossAx val="307177784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="355705040"/>
+        <c:axId val="307177784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -3545,7 +3549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355704256"/>
+        <c:crossAx val="307175432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -3892,11 +3896,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:axId val="349101864"/>
-        <c:axId val="410181736"/>
+        <c:axId val="307171120"/>
+        <c:axId val="307176608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349101864"/>
+        <c:axId val="307171120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4017,7 +4021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410181736"/>
+        <c:crossAx val="307176608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4026,7 +4030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="410181736"/>
+        <c:axId val="307176608"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4165,7 +4169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349101864"/>
+        <c:crossAx val="307171120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4177,6 +4181,689 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6071849242921647E-2"/>
+          <c:y val="5.6060892388451439E-2"/>
+          <c:w val="0.8854295034222821"/>
+          <c:h val="0.81167057451151947"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>L_1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5136000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7460000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1486000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5322999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.507099999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.807399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>L_2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.027200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.1326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.364899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.371500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.3307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.594100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.5214</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.422199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:axId val="358480304"/>
+        <c:axId val="358478736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="358480304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Symbol" panose="05050102010706020507" pitchFamily="18" charset="2"/>
+                  </a:rPr>
+                  <a:t>m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.51769238588941824"/>
+              <c:y val="0.91513887430737828"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358478736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="358478736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>L(t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>0</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.5172405803615779E-3"/>
+              <c:y val="0.41962951297754442"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="none"/>
+            <a:tailEnd type="none"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="358480304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10402460254870448"/>
+          <c:y val="8.851816856226305E-2"/>
+          <c:w val="6.6731242033669355E-2"/>
+          <c:h val="0.12150247885680956"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4494,6 +5181,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7591,6 +8318,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8332,182 +9575,39 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="12">
-          <cell r="N12">
-            <v>2</v>
-          </cell>
-          <cell r="W12">
-            <v>2.4650000000000001E-6</v>
-          </cell>
-          <cell r="Y12">
-            <v>1.7260000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="N13">
-            <v>2.5</v>
-          </cell>
-          <cell r="W13">
-            <v>2.9300000000000002E-4</v>
-          </cell>
-          <cell r="Y13">
-            <v>0.42</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="N14">
-            <v>3</v>
-          </cell>
-          <cell r="W14">
-            <v>5.0770000000000003E-4</v>
-          </cell>
-          <cell r="Y14">
-            <v>2.9790000000000001</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="N15">
-            <v>2</v>
-          </cell>
-          <cell r="W15">
-            <v>2.12E-6</v>
-          </cell>
-          <cell r="Y15">
-            <v>7.6499999999999995E-4</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="N16">
-            <v>2.5</v>
-          </cell>
-          <cell r="W16">
-            <v>8.4850000000000002E-5</v>
-          </cell>
-          <cell r="Y16">
-            <v>0.35399999999999998</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="N17">
-            <v>3</v>
-          </cell>
-          <cell r="W17">
-            <v>4.8500000000000003E-4</v>
-          </cell>
-          <cell r="Y17">
-            <v>2.38</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="N18">
-            <v>2</v>
-          </cell>
-          <cell r="W18">
-            <v>2.0700000000000001E-6</v>
-          </cell>
-          <cell r="Y18">
-            <v>2.0259999999999999E-4</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="N19">
-            <v>2.5</v>
-          </cell>
-          <cell r="W19">
-            <v>3.0599999999999998E-5</v>
-          </cell>
-          <cell r="Y19">
-            <v>9.4100000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="N20">
-            <v>3</v>
-          </cell>
-          <cell r="W20">
-            <v>4.1970000000000001E-4</v>
-          </cell>
-          <cell r="Y20">
-            <v>2.145</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>без коэффициентов</v>
-          </cell>
-          <cell r="AA2">
-            <v>1.37</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>2 коэффициента, SoftAdapt</v>
-          </cell>
-          <cell r="AA3">
-            <v>29.39</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>3 коэффициента, SoftAdapt</v>
-          </cell>
-          <cell r="AA4">
-            <v>104</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>3 случайных коэффициента</v>
-          </cell>
-          <cell r="AA5">
-            <v>91.5</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>3 коэффициента SoftAdapt с памятью</v>
-          </cell>
-          <cell r="AA6">
-            <v>1.47</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>3 коэффициента, ReLoBRaLo</v>
-          </cell>
-          <cell r="AA7">
-            <v>0.68400000000000005</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8797,10 +9897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8818,9 +9918,11 @@
     <col min="14" max="20" width="9.140625" style="7"/>
     <col min="21" max="21" width="9.140625" style="6" customWidth="1"/>
     <col min="24" max="24" width="9.140625" style="21"/>
+    <col min="26" max="26" width="13.7109375" style="27" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -8893,8 +9995,14 @@
       <c r="Y1" t="s">
         <v>12</v>
       </c>
+      <c r="Z1" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
@@ -8967,8 +10075,17 @@
         <f>P8</f>
         <v>5.2750000000000003E-6</v>
       </c>
+      <c r="Z2" s="27">
+        <v>4.899</v>
+      </c>
+      <c r="AA2" s="27">
+        <v>9.798</v>
+      </c>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
@@ -9023,8 +10140,17 @@
         <f>P5</f>
         <v>2.05E-5</v>
       </c>
+      <c r="Z3" s="27">
+        <v>5.5136000000000003</v>
+      </c>
+      <c r="AA3" s="27">
+        <v>11.027200000000001</v>
+      </c>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
@@ -9079,8 +10205,17 @@
         <f>P2</f>
         <v>4.8300000000000002E-5</v>
       </c>
+      <c r="Z4" s="27">
+        <v>6.0663</v>
+      </c>
+      <c r="AA4" s="27">
+        <v>12.1326</v>
+      </c>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>27</v>
       </c>
@@ -9135,8 +10270,17 @@
         <f>P9</f>
         <v>7.1269999999999997E-3</v>
       </c>
+      <c r="Z5" s="27">
+        <v>7.7460000000000004</v>
+      </c>
+      <c r="AA5" s="27">
+        <v>19.364899999999999</v>
+      </c>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>28</v>
       </c>
@@ -9188,11 +10332,20 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="Y6" s="7">
-        <f t="shared" ref="Y3:Y10" si="1">P6</f>
+        <f t="shared" ref="Y6" si="1">P6</f>
         <v>3.0870000000000002E-2</v>
       </c>
+      <c r="Z6" s="27">
+        <v>8.1486000000000001</v>
+      </c>
+      <c r="AA6" s="27">
+        <v>20.371500000000001</v>
+      </c>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
@@ -9247,8 +10400,17 @@
         <f>P3</f>
         <v>3.9390000000000001E-2</v>
       </c>
+      <c r="Z7" s="27">
+        <v>8.5322999999999993</v>
+      </c>
+      <c r="AA7" s="27">
+        <v>21.3307</v>
+      </c>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>30</v>
       </c>
@@ -9303,8 +10465,17 @@
         <f>P10</f>
         <v>0.23089999999999999</v>
       </c>
+      <c r="Z8" s="27">
+        <v>10.198</v>
+      </c>
+      <c r="AA8" s="27">
+        <v>30.594100000000001</v>
+      </c>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>31</v>
       </c>
@@ -9359,8 +10530,17 @@
         <f>P7</f>
         <v>0.24759999999999999</v>
       </c>
+      <c r="Z9" s="27">
+        <v>10.507099999999999</v>
+      </c>
+      <c r="AA9" s="27">
+        <v>31.5214</v>
+      </c>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>32</v>
       </c>
@@ -9415,6 +10595,15 @@
         <f>P4</f>
         <v>0.26079999999999998</v>
       </c>
+      <c r="Z10" s="27">
+        <v>10.807399999999999</v>
+      </c>
+      <c r="AA10" s="27">
+        <v>32.422199999999997</v>
+      </c>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9427,8 +10616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V40" sqref="V40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S52" sqref="S52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
